--- a/files-templates/qpr-12-020-68.XLSX
+++ b/files-templates/qpr-12-020-68.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paponwitmingsamorn/Documents/JTKET/Claim-backend/files-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35210E-0B12-1047-BEFC-B346E4F03079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42003ED6-3EA6-BB49-942C-8F389374E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="19840" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,21 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Quality Problem Rejection (QPR)</t>
-  </si>
-  <si>
-    <t>PARTS NAME</t>
   </si>
   <si>
     <t>SUPPLIER NAME</t>
   </si>
   <si>
     <t>OCCURANCE DATE</t>
-  </si>
-  <si>
-    <t>PARTS NO</t>
   </si>
   <si>
     <t>DATE REPORTED</t>
@@ -332,6 +326,15 @@
   <si>
     <t>OTHER</t>
   </si>
+  <si>
+    <t>PART NAME</t>
+  </si>
+  <si>
+    <t>PART NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -582,6 +585,19 @@
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1640,7 +1656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2116,15 +2132,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2144,15 +2151,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,6 +2311,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4941,16 +4966,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>254000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5008,16 +5033,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5704,16 +5729,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>292100</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6451,8 +6476,8 @@
   </sheetPr>
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.19921875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6467,35 +6492,35 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="242" t="s">
-        <v>53</v>
+      <c r="A2" s="236" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="260" t="s">
+      <c r="G2" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="261"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="255"/>
       <c r="X2" s="186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="187"/>
       <c r="Z2" s="187"/>
@@ -6509,78 +6534,82 @@
       <c r="AH2" s="191"/>
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="243"/>
+      <c r="A3" s="237"/>
       <c r="B3" s="15"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="263"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="257"/>
       <c r="X3" s="97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="98"/>
       <c r="AA3" s="98"/>
       <c r="AB3" s="99"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="216"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="210"/>
     </row>
     <row r="4" spans="1:34" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="243"/>
-      <c r="B4" s="217" t="s">
+      <c r="A4" s="237"/>
+      <c r="B4" s="211" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="214" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="223" t="s">
-        <v>2</v>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="259" t="s">
+        <v>21</v>
       </c>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="222"/>
-      <c r="X4" s="211" t="s">
-        <v>5</v>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="205" t="s">
+        <v>3</v>
       </c>
-      <c r="Y4" s="212"/>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="213"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="207"/>
       <c r="AC4" s="167"/>
       <c r="AD4" s="168"/>
       <c r="AE4" s="168"/>
@@ -6589,40 +6618,44 @@
       <c r="AH4" s="169"/>
     </row>
     <row r="5" spans="1:34" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="192" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C5" s="193"/>
       <c r="D5" s="193"/>
       <c r="E5" s="193"/>
       <c r="F5" s="194"/>
-      <c r="G5" s="205"/>
+      <c r="G5" s="202" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="180"/>
       <c r="I5" s="180"/>
       <c r="J5" s="180"/>
       <c r="K5" s="180"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="207" t="s">
-        <v>40</v>
+      <c r="L5" s="203"/>
+      <c r="M5" s="204" t="s">
+        <v>38</v>
       </c>
       <c r="N5" s="193"/>
       <c r="O5" s="193"/>
       <c r="P5" s="193"/>
       <c r="Q5" s="194"/>
-      <c r="R5" s="208"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209"/>
-      <c r="U5" s="209"/>
-      <c r="V5" s="209"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="211" t="s">
-        <v>35</v>
+      <c r="R5" s="262" t="s">
+        <v>21</v>
       </c>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="213"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="205" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="207"/>
       <c r="AC5" s="167"/>
       <c r="AD5" s="168"/>
       <c r="AE5" s="168"/>
@@ -6631,40 +6664,44 @@
       <c r="AH5" s="169"/>
     </row>
     <row r="6" spans="1:34" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="243"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="193"/>
       <c r="D6" s="193"/>
       <c r="E6" s="193"/>
       <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="G6" s="195" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="196"/>
       <c r="I6" s="196"/>
       <c r="J6" s="196"/>
       <c r="K6" s="196"/>
       <c r="L6" s="197"/>
       <c r="M6" s="198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="198"/>
       <c r="O6" s="198"/>
       <c r="P6" s="198"/>
       <c r="Q6" s="198"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="200"/>
-      <c r="V6" s="200"/>
-      <c r="W6" s="201"/>
-      <c r="X6" s="202" t="s">
-        <v>36</v>
+      <c r="R6" s="265" t="s">
+        <v>71</v>
       </c>
-      <c r="Y6" s="203"/>
-      <c r="Z6" s="203"/>
-      <c r="AA6" s="203"/>
-      <c r="AB6" s="204"/>
+      <c r="S6" s="266"/>
+      <c r="T6" s="266"/>
+      <c r="U6" s="266"/>
+      <c r="V6" s="266"/>
+      <c r="W6" s="267"/>
+      <c r="X6" s="199" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="201"/>
       <c r="AC6" s="164"/>
       <c r="AD6" s="165"/>
       <c r="AE6" s="165"/>
@@ -6673,16 +6710,16 @@
       <c r="AH6" s="166"/>
     </row>
     <row r="7" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="243"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="171"/>
       <c r="D7" s="171"/>
       <c r="E7" s="171"/>
       <c r="F7" s="22"/>
       <c r="G7" s="48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="49"/>
@@ -6693,7 +6730,7 @@
       <c r="N7" s="71"/>
       <c r="O7" s="22"/>
       <c r="P7" s="44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="72"/>
       <c r="R7" s="73"/>
@@ -6705,7 +6742,7 @@
       <c r="X7" s="71"/>
       <c r="Y7" s="22"/>
       <c r="Z7" s="172" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="173"/>
       <c r="AB7" s="173"/>
@@ -6717,10 +6754,10 @@
       <c r="AH7" s="174"/>
     </row>
     <row r="8" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="243"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="46"/>
       <c r="C8" s="44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="25"/>
@@ -6735,7 +6772,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="22"/>
       <c r="P8" s="175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="175"/>
       <c r="R8" s="75"/>
@@ -6757,10 +6794,10 @@
       <c r="AH8" s="55"/>
     </row>
     <row r="9" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="243"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="46"/>
       <c r="C9" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="22"/>
@@ -6775,7 +6812,7 @@
       <c r="N9" s="76"/>
       <c r="O9" s="25"/>
       <c r="P9" s="96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="96"/>
       <c r="R9" s="96"/>
@@ -6787,7 +6824,7 @@
       <c r="X9" s="78"/>
       <c r="Y9" s="79"/>
       <c r="Z9" s="176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="177"/>
       <c r="AB9" s="177"/>
@@ -6799,10 +6836,10 @@
       <c r="AH9" s="178"/>
     </row>
     <row r="10" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="243"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="80"/>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="81"/>
@@ -6837,9 +6874,9 @@
       <c r="AH10" s="181"/>
     </row>
     <row r="11" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="243"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="22"/>
@@ -6865,7 +6902,7 @@
       <c r="X11" s="182"/>
       <c r="Y11" s="182"/>
       <c r="Z11" s="58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA11" s="95"/>
       <c r="AB11" s="95"/>
@@ -6877,9 +6914,9 @@
       <c r="AH11" s="60"/>
     </row>
     <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="243"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -6905,7 +6942,7 @@
       <c r="X12" s="49"/>
       <c r="Y12" s="49"/>
       <c r="Z12" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="63"/>
       <c r="AB12" s="63"/>
@@ -6917,10 +6954,10 @@
       <c r="AH12" s="84"/>
     </row>
     <row r="13" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="243"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="65"/>
       <c r="C13" s="66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="66"/>
@@ -6929,7 +6966,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="2"/>
       <c r="J13" s="66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="66"/>
       <c r="L13" s="22"/>
@@ -6939,7 +6976,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S13" s="66"/>
       <c r="T13" s="66"/>
@@ -6949,7 +6986,7 @@
       <c r="X13" s="66"/>
       <c r="Y13" s="66"/>
       <c r="Z13" s="67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA13" s="68"/>
       <c r="AB13" s="68"/>
@@ -6961,7 +6998,7 @@
       <c r="AH13" s="70"/>
     </row>
     <row r="14" spans="1:34" ht="4.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="243"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6997,9 +7034,9 @@
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="1:34" s="40" customFormat="1" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="243"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -7028,7 +7065,7 @@
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
       <c r="AC15" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
@@ -7037,9 +7074,9 @@
       <c r="AH15" s="107"/>
     </row>
     <row r="16" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="243"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -7068,16 +7105,16 @@
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="259"/>
-      <c r="AE16" s="259"/>
-      <c r="AF16" s="259"/>
-      <c r="AG16" s="259"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="243"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -7116,9 +7153,9 @@
       <c r="AK17" s="102"/>
     </row>
     <row r="18" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="243"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -7157,9 +7194,9 @@
       <c r="AK18" s="102"/>
     </row>
     <row r="19" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="243"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -7198,9 +7235,9 @@
       <c r="AK19" s="102"/>
     </row>
     <row r="20" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="243"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -7239,9 +7276,9 @@
       <c r="AK20" s="102"/>
     </row>
     <row r="21" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="243"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -7280,7 +7317,7 @@
       <c r="AK21" s="105"/>
     </row>
     <row r="22" spans="1:37" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="243"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -7316,9 +7353,9 @@
       <c r="AH22" s="10"/>
     </row>
     <row r="23" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="243"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -7352,7 +7389,7 @@
       <c r="AH23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="243"/>
+      <c r="A24" s="237"/>
       <c r="B24" s="11"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -7382,7 +7419,7 @@
       <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="243"/>
+      <c r="A25" s="237"/>
       <c r="B25" s="11"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
@@ -7412,7 +7449,7 @@
       <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="243"/>
+      <c r="A26" s="237"/>
       <c r="B26" s="11"/>
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
@@ -7442,7 +7479,7 @@
       <c r="AH26" s="8"/>
     </row>
     <row r="27" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="243"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="11"/>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
@@ -7472,7 +7509,7 @@
       <c r="AH27" s="8"/>
     </row>
     <row r="28" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="243"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="11"/>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
@@ -7502,7 +7539,7 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="243"/>
+      <c r="A29" s="237"/>
       <c r="B29" s="11"/>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
@@ -7532,7 +7569,7 @@
       <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="243"/>
+      <c r="A30" s="237"/>
       <c r="B30" s="11"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -7562,7 +7599,7 @@
       <c r="AH30" s="8"/>
     </row>
     <row r="31" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="243"/>
+      <c r="A31" s="237"/>
       <c r="B31" s="11"/>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -7592,7 +7629,7 @@
       <c r="AH31" s="8"/>
     </row>
     <row r="32" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="243"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="11"/>
       <c r="C32" s="92"/>
       <c r="D32" s="92"/>
@@ -7622,7 +7659,7 @@
       <c r="AH32" s="8"/>
     </row>
     <row r="33" spans="1:34" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="244"/>
+      <c r="A33" s="238"/>
       <c r="B33" s="11"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
@@ -7652,49 +7689,49 @@
       <c r="AH33" s="8"/>
     </row>
     <row r="34" spans="1:34" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="230" t="s">
-        <v>20</v>
+      <c r="A34" s="224" t="s">
+        <v>18</v>
       </c>
-      <c r="B34" s="237" t="s">
-        <v>44</v>
+      <c r="B34" s="231" t="s">
+        <v>42</v>
       </c>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="238"/>
-      <c r="M34" s="238"/>
-      <c r="N34" s="238"/>
-      <c r="O34" s="238"/>
-      <c r="P34" s="238"/>
-      <c r="Q34" s="238"/>
-      <c r="R34" s="238"/>
-      <c r="S34" s="238"/>
-      <c r="T34" s="238"/>
-      <c r="U34" s="238"/>
-      <c r="V34" s="238"/>
-      <c r="W34" s="238"/>
-      <c r="X34" s="238"/>
-      <c r="Y34" s="238"/>
-      <c r="Z34" s="238"/>
-      <c r="AA34" s="238"/>
-      <c r="AB34" s="238"/>
-      <c r="AC34" s="238"/>
-      <c r="AD34" s="238"/>
-      <c r="AE34" s="238"/>
-      <c r="AF34" s="238"/>
-      <c r="AG34" s="238"/>
-      <c r="AH34" s="239"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="232"/>
+      <c r="G34" s="232"/>
+      <c r="H34" s="232"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="232"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="232"/>
+      <c r="O34" s="232"/>
+      <c r="P34" s="232"/>
+      <c r="Q34" s="232"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="232"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="232"/>
+      <c r="AA34" s="232"/>
+      <c r="AB34" s="232"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="232"/>
+      <c r="AE34" s="232"/>
+      <c r="AF34" s="232"/>
+      <c r="AG34" s="232"/>
+      <c r="AH34" s="233"/>
     </row>
     <row r="35" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="228"/>
+      <c r="A35" s="222"/>
       <c r="B35" s="161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="110"/>
       <c r="D35" s="108"/>
@@ -7712,7 +7749,7 @@
       <c r="P35" s="21"/>
       <c r="Q35" s="123"/>
       <c r="R35" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S35" s="108"/>
       <c r="T35" s="108"/>
@@ -7725,14 +7762,14 @@
       <c r="AA35" s="21"/>
       <c r="AB35" s="117"/>
       <c r="AC35" s="117"/>
-      <c r="AD35" s="258"/>
-      <c r="AE35" s="258"/>
-      <c r="AF35" s="258"/>
-      <c r="AG35" s="258"/>
+      <c r="AD35" s="252"/>
+      <c r="AE35" s="252"/>
+      <c r="AF35" s="252"/>
+      <c r="AG35" s="252"/>
       <c r="AH35" s="118"/>
     </row>
     <row r="36" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="228"/>
+      <c r="A36" s="222"/>
       <c r="B36" s="112"/>
       <c r="C36" s="111"/>
       <c r="D36" s="119"/>
@@ -7761,14 +7798,14 @@
       <c r="AA36" s="21"/>
       <c r="AB36" s="117"/>
       <c r="AC36" s="117"/>
-      <c r="AD36" s="241"/>
-      <c r="AE36" s="241"/>
-      <c r="AF36" s="241"/>
-      <c r="AG36" s="241"/>
+      <c r="AD36" s="235"/>
+      <c r="AE36" s="235"/>
+      <c r="AF36" s="235"/>
+      <c r="AG36" s="235"/>
       <c r="AH36" s="118"/>
     </row>
     <row r="37" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="228"/>
+      <c r="A37" s="222"/>
       <c r="B37" s="112"/>
       <c r="C37" s="111"/>
       <c r="D37" s="119"/>
@@ -7797,14 +7834,14 @@
       <c r="AA37" s="21"/>
       <c r="AB37" s="117"/>
       <c r="AC37" s="117"/>
-      <c r="AD37" s="241"/>
-      <c r="AE37" s="241"/>
-      <c r="AF37" s="241"/>
-      <c r="AG37" s="241"/>
+      <c r="AD37" s="235"/>
+      <c r="AE37" s="235"/>
+      <c r="AF37" s="235"/>
+      <c r="AG37" s="235"/>
       <c r="AH37" s="118"/>
     </row>
     <row r="38" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="228"/>
+      <c r="A38" s="222"/>
       <c r="B38" s="112"/>
       <c r="C38" s="111"/>
       <c r="D38" s="119"/>
@@ -7833,14 +7870,14 @@
       <c r="AA38" s="21"/>
       <c r="AB38" s="117"/>
       <c r="AC38" s="117"/>
-      <c r="AD38" s="240"/>
-      <c r="AE38" s="240"/>
-      <c r="AF38" s="240"/>
-      <c r="AG38" s="240"/>
+      <c r="AD38" s="234"/>
+      <c r="AE38" s="234"/>
+      <c r="AF38" s="234"/>
+      <c r="AG38" s="234"/>
       <c r="AH38" s="118"/>
     </row>
     <row r="39" spans="1:34" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="228"/>
+      <c r="A39" s="222"/>
       <c r="B39" s="149"/>
       <c r="C39" s="150"/>
       <c r="D39" s="151"/>
@@ -7876,9 +7913,9 @@
       <c r="AH39" s="118"/>
     </row>
     <row r="40" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="228"/>
+      <c r="A40" s="222"/>
       <c r="B40" s="155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="156"/>
       <c r="D40" s="157"/>
@@ -7914,9 +7951,9 @@
       <c r="AH40" s="118"/>
     </row>
     <row r="41" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="228"/>
+      <c r="A41" s="222"/>
       <c r="B41" s="131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="111"/>
       <c r="D41" s="119"/>
@@ -7952,9 +7989,9 @@
       <c r="AH41" s="118"/>
     </row>
     <row r="42" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="228"/>
+      <c r="A42" s="222"/>
       <c r="B42" s="131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="111"/>
       <c r="D42" s="119"/>
@@ -7990,9 +8027,9 @@
       <c r="AH42" s="118"/>
     </row>
     <row r="43" spans="1:34" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="229"/>
+      <c r="A43" s="223"/>
       <c r="B43" s="143" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="144"/>
       <c r="D43" s="145"/>
@@ -8028,17 +8065,17 @@
       <c r="AH43" s="137"/>
     </row>
     <row r="44" spans="1:34" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="227" t="s">
-        <v>19</v>
+      <c r="A44" s="221" t="s">
+        <v>17</v>
       </c>
       <c r="B44" s="132"/>
       <c r="C44" s="109"/>
       <c r="D44" s="113"/>
-      <c r="E44" s="233" t="s">
-        <v>54</v>
+      <c r="E44" s="227" t="s">
+        <v>52</v>
       </c>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="227"/>
       <c r="H44" s="113"/>
       <c r="I44" s="113"/>
       <c r="J44" s="114"/>
@@ -8054,33 +8091,33 @@
       <c r="T44" s="113"/>
       <c r="U44" s="113"/>
       <c r="V44" s="113"/>
-      <c r="W44" s="248" t="s">
-        <v>58</v>
+      <c r="W44" s="242" t="s">
+        <v>56</v>
       </c>
-      <c r="X44" s="249"/>
-      <c r="Y44" s="249"/>
-      <c r="Z44" s="250"/>
-      <c r="AA44" s="248" t="s">
-        <v>58</v>
+      <c r="X44" s="243"/>
+      <c r="Y44" s="243"/>
+      <c r="Z44" s="244"/>
+      <c r="AA44" s="242" t="s">
+        <v>56</v>
       </c>
-      <c r="AB44" s="249"/>
-      <c r="AC44" s="249"/>
-      <c r="AD44" s="250"/>
-      <c r="AE44" s="248" t="s">
-        <v>57</v>
+      <c r="AB44" s="243"/>
+      <c r="AC44" s="243"/>
+      <c r="AD44" s="244"/>
+      <c r="AE44" s="242" t="s">
+        <v>55</v>
       </c>
-      <c r="AF44" s="249"/>
-      <c r="AG44" s="249"/>
-      <c r="AH44" s="250"/>
+      <c r="AF44" s="243"/>
+      <c r="AG44" s="243"/>
+      <c r="AH44" s="244"/>
     </row>
     <row r="45" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="228"/>
+      <c r="A45" s="222"/>
       <c r="B45" s="130"/>
       <c r="C45" s="110"/>
       <c r="D45" s="141"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
       <c r="H45" s="108"/>
       <c r="I45" s="108"/>
       <c r="J45" s="117"/>
@@ -8096,29 +8133,29 @@
       <c r="T45" s="108"/>
       <c r="U45" s="108"/>
       <c r="V45" s="108"/>
-      <c r="W45" s="251"/>
-      <c r="X45" s="252"/>
-      <c r="Y45" s="252"/>
-      <c r="Z45" s="253"/>
-      <c r="AA45" s="251"/>
-      <c r="AB45" s="252"/>
-      <c r="AC45" s="252"/>
-      <c r="AD45" s="253"/>
-      <c r="AE45" s="251"/>
-      <c r="AF45" s="252"/>
-      <c r="AG45" s="252"/>
-      <c r="AH45" s="253"/>
+      <c r="W45" s="245"/>
+      <c r="X45" s="246"/>
+      <c r="Y45" s="246"/>
+      <c r="Z45" s="247"/>
+      <c r="AA45" s="245"/>
+      <c r="AB45" s="246"/>
+      <c r="AC45" s="246"/>
+      <c r="AD45" s="247"/>
+      <c r="AE45" s="245"/>
+      <c r="AF45" s="246"/>
+      <c r="AG45" s="246"/>
+      <c r="AH45" s="247"/>
     </row>
     <row r="46" spans="1:34" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="228"/>
+      <c r="A46" s="222"/>
       <c r="B46" s="129"/>
       <c r="C46" s="108"/>
       <c r="D46" s="141"/>
-      <c r="E46" s="235" t="s">
-        <v>55</v>
+      <c r="E46" s="229" t="s">
+        <v>53</v>
       </c>
-      <c r="F46" s="235"/>
-      <c r="G46" s="235"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="229"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
       <c r="J46" s="117"/>
@@ -8134,27 +8171,27 @@
       <c r="T46" s="108"/>
       <c r="U46" s="108"/>
       <c r="V46" s="108"/>
-      <c r="W46" s="254"/>
-      <c r="X46" s="255"/>
-      <c r="Y46" s="255"/>
-      <c r="Z46" s="256"/>
-      <c r="AA46" s="254"/>
-      <c r="AB46" s="255"/>
-      <c r="AC46" s="255"/>
-      <c r="AD46" s="256"/>
-      <c r="AE46" s="254"/>
-      <c r="AF46" s="255"/>
-      <c r="AG46" s="255"/>
-      <c r="AH46" s="256"/>
+      <c r="W46" s="248"/>
+      <c r="X46" s="249"/>
+      <c r="Y46" s="249"/>
+      <c r="Z46" s="250"/>
+      <c r="AA46" s="248"/>
+      <c r="AB46" s="249"/>
+      <c r="AC46" s="249"/>
+      <c r="AD46" s="250"/>
+      <c r="AE46" s="248"/>
+      <c r="AF46" s="249"/>
+      <c r="AG46" s="249"/>
+      <c r="AH46" s="250"/>
     </row>
     <row r="47" spans="1:34" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="229"/>
+      <c r="A47" s="223"/>
       <c r="B47" s="124"/>
       <c r="C47" s="125"/>
       <c r="D47" s="142"/>
-      <c r="E47" s="236"/>
-      <c r="F47" s="236"/>
-      <c r="G47" s="236"/>
+      <c r="E47" s="230"/>
+      <c r="F47" s="230"/>
+      <c r="G47" s="230"/>
       <c r="H47" s="125"/>
       <c r="I47" s="125"/>
       <c r="J47" s="126"/>
@@ -8170,72 +8207,72 @@
       <c r="T47" s="125"/>
       <c r="U47" s="125"/>
       <c r="V47" s="125"/>
-      <c r="W47" s="248"/>
-      <c r="X47" s="249"/>
-      <c r="Y47" s="249"/>
-      <c r="Z47" s="250"/>
-      <c r="AA47" s="248"/>
-      <c r="AB47" s="249"/>
-      <c r="AC47" s="249"/>
-      <c r="AD47" s="250"/>
-      <c r="AE47" s="248"/>
-      <c r="AF47" s="249"/>
-      <c r="AG47" s="249"/>
-      <c r="AH47" s="250"/>
+      <c r="W47" s="242"/>
+      <c r="X47" s="243"/>
+      <c r="Y47" s="243"/>
+      <c r="Z47" s="244"/>
+      <c r="AA47" s="242"/>
+      <c r="AB47" s="243"/>
+      <c r="AC47" s="243"/>
+      <c r="AD47" s="244"/>
+      <c r="AE47" s="242"/>
+      <c r="AF47" s="243"/>
+      <c r="AG47" s="243"/>
+      <c r="AH47" s="244"/>
     </row>
     <row r="48" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="257" t="s">
-        <v>24</v>
+      <c r="A48" s="251" t="s">
+        <v>22</v>
       </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="231" t="s">
-        <v>50</v>
+      <c r="B48" s="219"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="225" t="s">
+        <v>48</v>
       </c>
-      <c r="F48" s="232"/>
-      <c r="G48" s="232"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
-      <c r="N48" s="245" t="s">
-        <v>56</v>
+      <c r="N48" s="239" t="s">
+        <v>54</v>
       </c>
-      <c r="O48" s="245"/>
-      <c r="P48" s="245"/>
-      <c r="Q48" s="245"/>
-      <c r="R48" s="245"/>
-      <c r="S48" s="245"/>
-      <c r="T48" s="245"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="245"/>
-      <c r="W48" s="245"/>
-      <c r="X48" s="245"/>
-      <c r="Y48" s="245"/>
-      <c r="Z48" s="245"/>
-      <c r="AA48" s="245"/>
-      <c r="AB48" s="245"/>
-      <c r="AC48" s="245"/>
-      <c r="AD48" s="245"/>
-      <c r="AE48" s="245"/>
+      <c r="O48" s="239"/>
+      <c r="P48" s="239"/>
+      <c r="Q48" s="239"/>
+      <c r="R48" s="239"/>
+      <c r="S48" s="239"/>
+      <c r="T48" s="239"/>
+      <c r="U48" s="239"/>
+      <c r="V48" s="239"/>
+      <c r="W48" s="239"/>
+      <c r="X48" s="239"/>
+      <c r="Y48" s="239"/>
+      <c r="Z48" s="239"/>
+      <c r="AA48" s="239"/>
+      <c r="AB48" s="239"/>
+      <c r="AC48" s="239"/>
+      <c r="AD48" s="239"/>
+      <c r="AE48" s="239"/>
       <c r="AF48" s="22"/>
-      <c r="AG48" s="246" t="s">
-        <v>52</v>
+      <c r="AG48" s="240" t="s">
+        <v>50</v>
       </c>
-      <c r="AH48" s="247"/>
+      <c r="AH48" s="241"/>
     </row>
     <row r="49" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="224" t="s">
-        <v>27</v>
+      <c r="A49" s="218" t="s">
+        <v>25</v>
       </c>
-      <c r="B49" s="225"/>
-      <c r="C49" s="225"/>
-      <c r="D49" s="226"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="219"/>
+      <c r="D49" s="220"/>
       <c r="E49" s="134"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -8243,7 +8280,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -8253,7 +8290,7 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
@@ -8283,7 +8320,7 @@
       <c r="I50" s="88"/>
       <c r="J50" s="88"/>
       <c r="K50" s="135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L50" s="136"/>
       <c r="M50" s="88"/>
@@ -8293,7 +8330,7 @@
       <c r="Q50" s="88"/>
       <c r="R50" s="88"/>
       <c r="S50" s="88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T50" s="88"/>
       <c r="U50" s="88"/>
@@ -8981,16 +9018,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>31</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:col>30</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>254000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>33</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:col>32</xdr:col>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9003,16 +9040,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>31</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:col>30</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>33</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:col>32</xdr:col>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9179,16 +9216,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>31</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:col>30</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>292100</xdr:rowOff>
+                    <xdr:rowOff>266700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>33</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:col>32</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9279,7 +9316,7 @@
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="162" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="162"/>
       <c r="E3" s="162"/>
@@ -9298,15 +9335,15 @@
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" s="162" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="162" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="162"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
-      <c r="H4" s="264"/>
+      <c r="H4" s="258"/>
       <c r="I4" s="162"/>
       <c r="J4" s="162"/>
       <c r="K4" s="162"/>
@@ -9319,15 +9356,15 @@
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="162" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="162"/>
       <c r="G5" s="162"/>
-      <c r="H5" s="264"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="162"/>
       <c r="J5" s="162"/>
       <c r="K5" s="162"/>
@@ -9340,15 +9377,15 @@
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" s="162" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="162"/>
       <c r="F6" s="162"/>
       <c r="G6" s="162"/>
-      <c r="H6" s="264"/>
+      <c r="H6" s="258"/>
       <c r="I6" s="162"/>
       <c r="J6" s="162"/>
       <c r="K6" s="162"/>
@@ -9378,7 +9415,7 @@
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="162" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="162"/>
       <c r="E8" s="162"/>
